--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
@@ -770,6 +770,38 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>harsh</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>shah</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>chs</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ingenuithy</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>harshshah</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E8" r:id="rId1"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -438,7 +438,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -783,17 +783,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>chs</t>
+          <t>CHS</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ingenuithy</t>
+          <t>ingenuityprevails@gmail.com</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
